--- a/Casos de prueba/Casos de prueba.xlsx
+++ b/Casos de prueba/Casos de prueba.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\python\Entrega1_DeBiase\Casos de prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E357B479-1349-4901-A27E-8F30266A8C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E569F4D-C07B-4AE9-B9BD-A515E84AE968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{D34B1504-72B5-422D-86DB-19681336F1CC}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="87">
   <si>
     <t>Nombre del Proyecto</t>
   </si>
@@ -276,6 +276,24 @@
   </si>
   <si>
     <t>Proyecto Final (AppRegistro)</t>
+  </si>
+  <si>
+    <t>No deberia poderse</t>
+  </si>
+  <si>
+    <t>Poder seleccionar otras vistas despues del primer login</t>
+  </si>
+  <si>
+    <t>se puede y sale error</t>
+  </si>
+  <si>
+    <t>Deberia dar mensaje de registro o login</t>
+  </si>
+  <si>
+    <t>Entrar a pages sin blogs sin estar registrado</t>
+  </si>
+  <si>
+    <t>da error</t>
   </si>
 </sst>
 </file>
@@ -370,25 +388,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -398,6 +398,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -717,10 +735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED088016-EBE8-4F67-9AF6-0E25A93F53CF}">
-  <dimension ref="B4:N53"/>
+  <dimension ref="B4:N55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44:E44"/>
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,80 +752,80 @@
       <c r="J4" s="1"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="12"/>
+      <c r="D6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="5" t="s">
+      <c r="E6" s="7"/>
+      <c r="F6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="3" t="s">
+      <c r="G6" s="12"/>
+      <c r="H6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="3"/>
+      <c r="I6" s="7"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="3">
+      <c r="C7" s="12"/>
+      <c r="D7" s="7">
         <v>1</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="5" t="s">
+      <c r="E7" s="7"/>
+      <c r="F7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="3" t="s">
+      <c r="G7" s="12"/>
+      <c r="H7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="3"/>
+      <c r="I7" s="7"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="3" t="s">
+      <c r="C8" s="12"/>
+      <c r="D8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="5" t="s">
+      <c r="E8" s="7"/>
+      <c r="F8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="3" t="s">
+      <c r="C9" s="12"/>
+      <c r="D9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="5" t="s">
+      <c r="E9" s="7"/>
+      <c r="F9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="3" t="s">
+      <c r="G9" s="12"/>
+      <c r="H9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="3"/>
+      <c r="I9" s="7"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
@@ -824,1103 +842,1018 @@
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4" t="s">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4" t="s">
+      <c r="F11" s="11"/>
+      <c r="G11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4" t="s">
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4" t="s">
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="N11" s="4"/>
+      <c r="N11" s="11"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
+      <c r="B13" s="7">
         <v>1</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="6">
+      <c r="C13" s="7"/>
+      <c r="D13" s="3">
         <v>44671</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9" t="s">
+      <c r="F13" s="8"/>
+      <c r="G13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9" t="s">
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="7" t="s">
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="N13" s="7"/>
+      <c r="N13" s="10"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
+      <c r="B14" s="7">
         <v>2</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="6">
+      <c r="C14" s="7"/>
+      <c r="D14" s="3">
         <v>44671</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9" t="s">
+      <c r="F14" s="8"/>
+      <c r="G14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9" t="s">
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="7" t="s">
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="N14" s="7"/>
+      <c r="N14" s="10"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="3">
+      <c r="B15" s="7">
         <v>3</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="6">
+      <c r="C15" s="7"/>
+      <c r="D15" s="3">
         <v>44671</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9" t="s">
+      <c r="F15" s="8"/>
+      <c r="G15" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9" t="s">
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="7" t="s">
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="N15" s="7"/>
-    </row>
-    <row r="16" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="3">
+      <c r="N15" s="10"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="7">
         <v>4</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="6">
+      <c r="C16" s="7"/>
+      <c r="D16" s="3">
+        <v>44680</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N16" s="9"/>
+    </row>
+    <row r="17" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="7">
+        <v>5</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="3">
         <v>44671</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E17" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9" t="s">
+      <c r="F17" s="8"/>
+      <c r="G17" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9" t="s">
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="7" t="s">
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="N16" s="7"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="3">
-        <v>5</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="6">
+      <c r="N17" s="10"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="7">
+        <v>6</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="3">
         <v>44671</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E18" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9" t="s">
+      <c r="F18" s="8"/>
+      <c r="G18" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9" t="s">
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="7" t="s">
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="N17" s="7"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="3">
-        <v>6</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="6">
+      <c r="N18" s="10"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="7">
+        <v>7</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="3">
         <v>44674</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E19" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9" t="s">
+      <c r="F19" s="8"/>
+      <c r="G19" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9" t="s">
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="8" t="s">
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="N18" s="8"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="3">
-        <v>7</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="6">
+      <c r="N19" s="9"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="7">
+        <v>8</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="3">
         <v>44674</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E20" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9" t="s">
+      <c r="F20" s="8"/>
+      <c r="G20" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9" t="s">
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="7" t="s">
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="N19" s="7"/>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="3">
-        <v>8</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="6">
+      <c r="N20" s="10"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="7">
+        <v>9</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="3">
         <v>44674</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E21" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9" t="s">
+      <c r="F21" s="8"/>
+      <c r="G21" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9" t="s">
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="7" t="s">
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="N20" s="7"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="2"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="5" t="s">
+      <c r="N21" s="10"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="3" t="s">
+      <c r="C24" s="12"/>
+      <c r="D24" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="5" t="s">
+      <c r="E24" s="7"/>
+      <c r="F24" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G23" s="5"/>
-      <c r="H23" s="3" t="s">
+      <c r="G24" s="12"/>
+      <c r="H24" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I23" s="3"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="3">
-        <v>2</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="5"/>
-      <c r="H24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I24" s="3"/>
+      <c r="I24" s="7"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="7">
         <v>2</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="12"/>
+      <c r="H25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="7"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="3" t="s">
+      <c r="B26" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G26" s="5"/>
-      <c r="H26" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I26" s="3"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="12"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
+      <c r="B27" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="12"/>
+      <c r="H27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" s="7"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4" t="s">
+      <c r="C29" s="11"/>
+      <c r="D29" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E29" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4" t="s">
+      <c r="F29" s="11"/>
+      <c r="G29" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4" t="s">
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4" t="s">
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="N28" s="4"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
+      <c r="N29" s="11"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="3">
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="7">
         <v>1</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="6">
+      <c r="C31" s="7"/>
+      <c r="D31" s="3">
         <v>44672</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E31" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9" t="s">
+      <c r="F31" s="8"/>
+      <c r="G31" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9" t="s">
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="7" t="s">
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="N30" s="7"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="3">
+      <c r="N31" s="10"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="7">
         <v>2</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="6">
+      <c r="C32" s="7"/>
+      <c r="D32" s="3">
         <v>44672</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E32" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9" t="s">
+      <c r="F32" s="8"/>
+      <c r="G32" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9" t="s">
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="7" t="s">
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="N31" s="7"/>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="3">
+      <c r="N32" s="10"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="7">
         <v>3</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="6">
+      <c r="C33" s="7"/>
+      <c r="D33" s="3">
         <v>44672</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E33" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9" t="s">
+      <c r="F33" s="8"/>
+      <c r="G33" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9" t="s">
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="7" t="s">
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="N32" s="7"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="3">
+      <c r="N33" s="10"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="7">
         <v>4</v>
       </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="6">
+      <c r="C34" s="7"/>
+      <c r="D34" s="3">
         <v>44672</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E34" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9" t="s">
+      <c r="F34" s="8"/>
+      <c r="G34" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9" t="s">
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="7" t="s">
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="N33" s="7"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="3">
+      <c r="N34" s="10"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35" s="7">
         <v>5</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="6">
+      <c r="C35" s="7"/>
+      <c r="D35" s="3">
         <v>44673</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E35" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F34" s="9"/>
-      <c r="G34" s="13" t="s">
+      <c r="F35" s="8"/>
+      <c r="G35" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="9" t="s">
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="7" t="s">
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="N34" s="7"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B35" s="3">
+      <c r="N35" s="10"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="7">
         <v>6</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="6">
+      <c r="C36" s="7"/>
+      <c r="D36" s="3">
         <v>44673</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E36" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9" t="s">
+      <c r="F36" s="8"/>
+      <c r="G36" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9" t="s">
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="7" t="s">
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="N35" s="7"/>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B36" s="3">
+      <c r="N36" s="10"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="7">
         <v>7</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="6">
+      <c r="C37" s="7"/>
+      <c r="D37" s="3">
+        <v>44680</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N37" s="9"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38" s="7">
+        <v>9</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="3">
         <v>44673</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E38" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9" t="s">
+      <c r="F38" s="8"/>
+      <c r="G38" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9" t="s">
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="8" t="s">
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="N36" s="8"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B37" s="3">
-        <v>8</v>
-      </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="6">
+      <c r="N38" s="9"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="7">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="3">
         <v>44673</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E39" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9" t="s">
+      <c r="F39" s="8"/>
+      <c r="G39" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9" t="s">
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="7" t="s">
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="N37" s="7"/>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B38" s="3">
-        <v>9</v>
-      </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="6">
+      <c r="N39" s="10"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B40" s="7">
+        <v>11</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="3">
         <v>44673</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E40" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9" t="s">
+      <c r="F40" s="8"/>
+      <c r="G40" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9" t="s">
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="7" t="s">
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="N38" s="7"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B39" s="3">
-        <v>10</v>
-      </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="6">
+      <c r="N40" s="10"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B41" s="7">
+        <v>12</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="3">
         <v>44673</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E41" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9" t="s">
+      <c r="F41" s="8"/>
+      <c r="G41" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9" t="s">
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="7" t="s">
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="N39" s="7"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
+      <c r="N41" s="10"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B45" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="3" t="s">
+      <c r="C45" s="12"/>
+      <c r="D45" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="5" t="s">
+      <c r="E45" s="7"/>
+      <c r="F45" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G43" s="5"/>
-      <c r="H43" s="3" t="s">
+      <c r="G45" s="12"/>
+      <c r="H45" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I43" s="3"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B44" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="3">
-        <v>3</v>
-      </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G44" s="5"/>
-      <c r="H44" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I44" s="3"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B45" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E45" s="3"/>
-      <c r="F45" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G45" s="5"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
+      <c r="I45" s="7"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="12"/>
+      <c r="D46" s="7">
         <v>3</v>
       </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E46" s="3"/>
-      <c r="F46" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G46" s="5"/>
-      <c r="H46" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I46" s="3"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46" s="12"/>
+      <c r="H46" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I46" s="7"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
+      <c r="B47" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="12"/>
+      <c r="D47" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" s="7"/>
+      <c r="F47" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G47" s="12"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="12"/>
+      <c r="D48" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="7"/>
+      <c r="F48" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G48" s="12"/>
+      <c r="H48" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I48" s="7"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B50" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4" t="s">
+      <c r="C50" s="11"/>
+      <c r="D50" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E50" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4" t="s">
+      <c r="F50" s="11"/>
+      <c r="G50" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4" t="s">
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4" t="s">
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="N48" s="4"/>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4"/>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B50" s="3">
+      <c r="N50" s="11"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B52" s="7">
         <v>1</v>
       </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="6">
+      <c r="C52" s="7"/>
+      <c r="D52" s="3">
         <v>44674</v>
       </c>
-      <c r="E50" s="9" t="s">
+      <c r="E52" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9" t="s">
+      <c r="F52" s="8"/>
+      <c r="G52" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9" t="s">
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
-      <c r="M50" s="7" t="s">
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="N50" s="7"/>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B51" s="3">
+      <c r="N52" s="10"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B53" s="7">
         <v>2</v>
       </c>
-      <c r="C51" s="3"/>
-      <c r="D51" s="6">
+      <c r="C53" s="7"/>
+      <c r="D53" s="3">
         <v>44674</v>
       </c>
-      <c r="E51" s="9" t="s">
+      <c r="E53" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9" t="s">
+      <c r="F53" s="8"/>
+      <c r="G53" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9" t="s">
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="7" t="s">
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="N51" s="7"/>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B52" s="3">
+      <c r="N53" s="10"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B54" s="7">
         <v>3</v>
       </c>
-      <c r="C52" s="3"/>
-      <c r="D52" s="6">
+      <c r="C54" s="7"/>
+      <c r="D54" s="3">
         <v>44674</v>
       </c>
-      <c r="E52" s="9" t="s">
+      <c r="E54" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9" t="s">
+      <c r="F54" s="8"/>
+      <c r="G54" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9" t="s">
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="K52" s="9"/>
-      <c r="L52" s="9"/>
-      <c r="M52" s="7" t="s">
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="N52" s="7"/>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B53" s="3">
+      <c r="N54" s="10"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B55" s="7">
         <v>4</v>
       </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="6">
+      <c r="C55" s="7"/>
+      <c r="D55" s="3">
         <v>44674</v>
       </c>
-      <c r="E53" s="9" t="s">
+      <c r="E55" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9" t="s">
+      <c r="F55" s="8"/>
+      <c r="G55" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9" t="s">
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="K53" s="9"/>
-      <c r="L53" s="9"/>
-      <c r="M53" s="7" t="s">
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="N53" s="7"/>
+      <c r="N55" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="176">
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="J53:L53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="J52:L52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="J51:L51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="M48:N49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="J50:L50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="B48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:F49"/>
-    <mergeCell ref="G48:I49"/>
-    <mergeCell ref="J48:L49"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:I37"/>
+  <mergeCells count="186">
     <mergeCell ref="J37:L37"/>
     <mergeCell ref="M37:N37"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="J28:L29"/>
-    <mergeCell ref="M28:N29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="B28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:F29"/>
-    <mergeCell ref="G28:I29"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:N17"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:I16"/>
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="M16:N16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:I37"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="M11:N12"/>
@@ -1934,13 +1867,162 @@
     <mergeCell ref="E11:F12"/>
     <mergeCell ref="G11:I12"/>
     <mergeCell ref="J11:L12"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="B29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:F30"/>
+    <mergeCell ref="G29:I30"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="J29:L30"/>
+    <mergeCell ref="M29:N30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="J53:L53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="M50:N51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="J52:L52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="B50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:F51"/>
+    <mergeCell ref="G50:I51"/>
+    <mergeCell ref="J50:L51"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="J55:L55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="J54:L54"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="M39:N39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
